--- a/Self Grading Report - Big Data Set.xlsx
+++ b/Self Grading Report - Big Data Set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Denys/Projects/hack/repo/Team-19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FFFD2E6-9C9F-C346-AEB0-12902551C929}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3D07A48-C8D3-5F48-8040-BD5E34B2D55B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="3320" windowWidth="28800" windowHeight="12760" xr2:uid="{006642C4-FD3D-4D0B-9CFB-211770B15BDD}"/>
+    <workbookView xWindow="4800" yWindow="5740" windowWidth="28800" windowHeight="12760" xr2:uid="{006642C4-FD3D-4D0B-9CFB-211770B15BDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Event Predicted 1</t>
   </si>
@@ -103,13 +103,25 @@
   </si>
   <si>
     <t>TruePositive: 2, FalsePositive: 111</t>
+  </si>
+  <si>
+    <t>TruePositive: 0, FalsePositive: 1071</t>
+  </si>
+  <si>
+    <t>5/26/2018- 5:27:11 AM</t>
+  </si>
+  <si>
+    <t>6/10/2018 -  9:56:01 PM</t>
+  </si>
+  <si>
+    <t>5/6/2018 - 7:20:01 AM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +137,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -245,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -277,6 +295,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="47" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,7 +614,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -602,7 +622,8 @@
     <col min="1" max="1" width="31.83203125" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="5" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
     <col min="6" max="6" width="32.1640625" customWidth="1"/>
     <col min="7" max="8" width="12.33203125" customWidth="1"/>
     <col min="9" max="9" width="21.5" customWidth="1"/>
@@ -724,6 +745,9 @@
       <c r="C8">
         <v>517</v>
       </c>
+      <c r="D8" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="F8" t="s">
         <v>24</v>
       </c>
@@ -743,6 +767,9 @@
       <c r="C10">
         <v>113</v>
       </c>
+      <c r="D10" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="F10" t="s">
         <v>25</v>
       </c>
@@ -771,6 +798,12 @@
       </c>
       <c r="C14">
         <v>1071</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
